--- a/Examples/gpp/gpp_model.xlsx
+++ b/Examples/gpp/gpp_model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Termoeconomia\ExIOLab\Examples\gpp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctorr\Documents\Proyectos\TaesLab\Examples\gpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{546B406B-91B7-46A8-BA9A-F47A49BD12D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC079C76-AA5D-41AE-A008-484ADD22BB27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1875" yWindow="90" windowWidth="25740" windowHeight="14700" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PhysicalDiagram" sheetId="5" r:id="rId1"/>
@@ -25,7 +25,7 @@
   </sheets>
   <definedNames>
     <definedName name="cgam_flows" localSheetId="2">Flows!$A$1:$B$13</definedName>
-    <definedName name="cgam_processes" localSheetId="3">Processes!$A$1:$E$6</definedName>
+    <definedName name="cgam_processes" localSheetId="3">Processes!$A$1:$D$6</definedName>
     <definedName name="cgam_sample" localSheetId="4">Exergy!$A$1:$B$13</definedName>
     <definedName name="tgas_fmt" localSheetId="5">Format!$A$1:$D$7</definedName>
   </definedNames>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="110">
   <si>
     <t>key</t>
   </si>
@@ -417,6 +417,12 @@
   </si>
   <si>
     <t>Base</t>
+  </si>
+  <si>
+    <t>recycle</t>
+  </si>
+  <si>
+    <t>GTSP</t>
   </si>
 </sst>
 </file>
@@ -486,7 +492,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -495,8 +501,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1249,15 +1254,17 @@
   <sheetPr codeName="Hoja4"/>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" customWidth="1"/>
     <col min="6" max="6" width="10.140625" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
   </cols>
@@ -1267,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>6</v>
@@ -1276,15 +1283,15 @@
         <v>7</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>47</v>
@@ -1293,7 +1300,7 @@
         <v>93</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1301,7 +1308,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>80</v>
@@ -1310,7 +1317,7 @@
         <v>81</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1318,7 +1325,7 @@
         <v>59</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>84</v>
@@ -1327,7 +1334,7 @@
         <v>85</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1335,7 +1342,7 @@
         <v>60</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
         <v>86</v>
@@ -1344,7 +1351,7 @@
         <v>87</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1352,7 +1359,7 @@
         <v>61</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>99</v>
@@ -1361,7 +1368,7 @@
         <v>98</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1369,7 +1376,7 @@
         <v>64</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>92</v>
@@ -1378,7 +1385,7 @@
         <v>96</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1386,7 +1393,7 @@
         <v>58</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>82</v>
@@ -1395,7 +1402,7 @@
         <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1403,7 +1410,7 @@
         <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>50</v>
@@ -1412,7 +1419,7 @@
         <v>83</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1420,7 +1427,7 @@
         <v>62</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
         <v>90</v>
@@ -1429,7 +1436,7 @@
         <v>49</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1437,7 +1444,7 @@
         <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
         <v>51</v>
@@ -1446,7 +1453,7 @@
         <v>91</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1454,7 +1461,7 @@
         <v>65</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
         <v>95</v>
@@ -1463,7 +1470,7 @@
         <v>94</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1471,7 +1478,7 @@
         <v>56</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
         <v>88</v>
@@ -1480,7 +1487,7 @@
         <v>53</v>
       </c>
       <c r="E13" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1488,7 +1495,7 @@
         <v>66</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
         <v>89</v>
@@ -1497,7 +1504,7 @@
         <v>54</v>
       </c>
       <c r="E14" t="s">
-        <v>9</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1509,7 +1516,7 @@
           <x14:formula1>
             <xm:f>Validate!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>E4:E6 E2:E3 E12:E14 E8:E11 E7</xm:sqref>
+          <xm:sqref>B4:B6 B2:B3 B12:B14 B8:B11 B7</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1783,7 +1790,7 @@
   <sheetPr codeName="Hoja6"/>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -1897,36 +1904,45 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2020,7 +2036,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2040,22 +2056,22 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="8">
         <v>0.04</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s">
         <v>105</v>
